--- a/Datasets/UCD_EngArch_Path_Biomed-Elec_UG_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_Biomed-Elec_UG_Modules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SATLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanh\Documents\GitHub\ChatGPTAssessment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2DEE111-17F2-4FE6-B2C2-7EC5C4BEE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D610C-506E-4966-920B-FD743F9AE86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="61">
   <si>
     <t>EEEN20020</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Medicine</t>
+  </si>
+  <si>
+    <t>MEEN30140</t>
   </si>
 </sst>
 </file>
@@ -575,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AD8BE-D0F1-4863-8083-BF0D6224CD04}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J35" sqref="J14:M35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -1531,7 +1534,7 @@
         <v>28</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -1543,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
